--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,41 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\tra-cuu\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D770EE-1DDB-47D4-B510-D3912CDF24D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6345" yWindow="1245" windowWidth="16950" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã sinh viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>Nơi sinh</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>SV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>TX01/21.01HN01</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>2.5 năm</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>2.5A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Sinh viên học tập tốt, có thái độ học tập nghiêm túc</t>
+  </si>
+  <si>
+    <t>Cần cải thiện kỹ năng thuyết trình (https://example.com/guide)</t>
+  </si>
+  <si>
+    <t>Đề xuất tham gia hoạt động ngoại khóa</t>
+  </si>
+  <si>
+    <t>SV002</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Bình</t>
+  </si>
+  <si>
+    <t>note1(có thể gán được link url)</t>
+  </si>
+  <si>
+    <t>note2(có thể gán được link url)</t>
+  </si>
+  <si>
+    <t>note3(có thể gán được link url)</t>
+  </si>
+  <si>
+    <t>SV003</t>
+  </si>
+  <si>
+    <t>Trần Thị C</t>
+  </si>
+  <si>
+    <t>TX02/21.01HN02</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>3 năm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>3.5A</t>
+  </si>
+  <si>
+    <t>Giỏi</t>
+  </si>
+  <si>
+    <t>Sinh viên xuất sắc, đạt nhiều thành tích cao</t>
+  </si>
+  <si>
+    <t>Được đề xuất học bổng (https://scholarship.edu.vn)</t>
+  </si>
+  <si>
+    <t>Tham gia nghiên cứu khoa học</t>
+  </si>
+  <si>
+    <t>SV004</t>
+  </si>
+  <si>
+    <t>Lê Minh D</t>
+  </si>
+  <si>
+    <t>TX03/21.01HN03</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>Sinh viên có tinh thần học tập tốt</t>
+  </si>
+  <si>
+    <t>Cần theo dõi thêm về kết quả học tập (https://portal.edu.vn/student)</t>
+  </si>
+  <si>
+    <t>Khuyến khích tham gia các hoạt động nhóm</t>
+  </si>
+  <si>
+    <t>[Điểm] 1</t>
+  </si>
+  <si>
+    <t>[Điểm] 2</t>
+  </si>
+  <si>
+    <t>[Điểm] 3</t>
+  </si>
+  <si>
+    <t>[Điểm] 4</t>
+  </si>
+  <si>
+    <t>[Điểm] 5</t>
+  </si>
+  <si>
+    <t>[Điểm] 6</t>
+  </si>
+  <si>
+    <t>[Điểm] 7</t>
+  </si>
+  <si>
+    <t>[Điểm] 8</t>
+  </si>
+  <si>
+    <t>[Điểm] 9</t>
+  </si>
+  <si>
+    <t>[Điểm] 10</t>
+  </si>
+  <si>
+    <t>[Ghi chú] 1</t>
+  </si>
+  <si>
+    <t>[Ghi chú] 2</t>
+  </si>
+  <si>
+    <t>[Ghi chú] 3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -73,6 +247,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,340 +579,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>STT</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mã sinh viên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Họ và tên</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ngày sinh</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Lớp</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Nơi sinh</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Đối tượng</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Điểm 1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Điểm 2</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Điểm 3</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Điểm 4</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Điểm 5</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Điểm 6</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Điểm 7</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Điểm 8</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Điểm 9</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Điểm 10</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Kết quả</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Ghi chú 1</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Ghi chú 2</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Ghi chú 3</v>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>SV001</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Nguyễn Văn A</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>37695.00034722222</v>
-      </c>
-      <c r="E2" t="str">
-        <v>TX01/21.01HN01</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Hà Nội</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2.5 năm</v>
+        <v>37695.000347222223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
       <c r="H2">
         <v>8.5</v>
       </c>
-      <c r="I2" t="str">
-        <v>CT1</v>
-      </c>
-      <c r="J2" t="str">
-        <v>CT2</v>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
       <c r="K2">
         <v>7.8</v>
       </c>
-      <c r="L2" t="str">
-        <v>2.5A</v>
-      </c>
-      <c r="M2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="P2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Đạt</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Sinh viên học tập tốt, có thái độ học tập nghiêm túc</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Cần cải thiện kỹ năng thuyết trình (https://example.com/guide)</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Đề xuất tham gia hoạt động ngoại khóa</v>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>SV002</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Nguyễn Bá Bình</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>37641.00034722222</v>
-      </c>
-      <c r="E3" t="str">
-        <v>TX01/21.01HN01</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Hà Nội</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2.5 năm</v>
+        <v>37641.000347222223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
       <c r="H3">
         <v>6.2</v>
       </c>
-      <c r="I3" t="str">
-        <v>CT1</v>
-      </c>
-      <c r="J3" t="str">
-        <v>CT2</v>
-      </c>
-      <c r="K3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="L3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="M3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="P3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>2.5A</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Đạt</v>
-      </c>
-      <c r="S3" t="str">
-        <v>note1(có thể gán được link url)</v>
-      </c>
-      <c r="T3" t="str">
-        <v>note2(có thể gán được link url)</v>
-      </c>
-      <c r="U3" t="str">
-        <v>note3(có thể gán được link url)</v>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>SV003</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Trần Thị C</v>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="1">
-        <v>37751.00034722222</v>
-      </c>
-      <c r="E4" t="str">
-        <v>TX02/21.01HN02</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Hải Phòng</v>
-      </c>
-      <c r="G4" t="str">
-        <v>3 năm</v>
+        <v>37751.000347222223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>9.2</v>
-      </c>
-      <c r="I4" t="str">
-        <v>A</v>
-      </c>
-      <c r="J4" t="str">
-        <v>A+</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>8.8</v>
-      </c>
-      <c r="L4" t="str">
-        <v>3.5A</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
       </c>
       <c r="M4">
         <v>9</v>
       </c>
-      <c r="N4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="P4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="R4" t="str">
-        <v>Giỏi</v>
-      </c>
-      <c r="S4" t="str">
-        <v>Sinh viên xuất sắc, đạt nhiều thành tích cao</v>
-      </c>
-      <c r="T4" t="str">
-        <v>Được đề xuất học bổng (https://scholarship.edu.vn)</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Tham gia nghiên cứu khoa học</v>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>SV004</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Lê Minh D</v>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="1">
-        <v>37827.00034722222</v>
-      </c>
-      <c r="E5" t="str">
-        <v>TX03/21.01HN03</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2.5 năm</v>
+        <v>37827.000347222223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
       <c r="H5">
         <v>7.5</v>
       </c>
-      <c r="I5" t="str">
-        <v>B+</v>
-      </c>
-      <c r="J5" t="str">
-        <v>B</v>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
       </c>
       <c r="K5">
         <v>8</v>
       </c>
-      <c r="L5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="M5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="P5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="R5" t="str">
-        <v>Khá</v>
-      </c>
-      <c r="S5" t="str">
-        <v>Sinh viên có tinh thần học tập tốt</v>
-      </c>
-      <c r="T5" t="str">
-        <v>Cần theo dõi thêm về kết quả học tập (https://portal.edu.vn/student)</v>
-      </c>
-      <c r="U5" t="str">
-        <v>Khuyến khích tham gia các hoạt động nhóm</v>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U5"/>
+    <ignoredError sqref="A2:U5 A1:G1 R1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\tra-cuu\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\tra-cuu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D770EE-1DDB-47D4-B510-D3912CDF24D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5593656-C3F9-43CC-A703-62B11BBAC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1245" windowWidth="16950" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" r:id="rId1"/>
+    <sheet name="Kỳ thi số 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kỳ thi số 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -582,16 +583,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -721,7 +722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -786,7 +787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -851,7 +852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -922,4 +923,347 @@
     <ignoredError sqref="A2:U5 A1:G1 R1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F688AB9-148B-494D-B9DE-97085CA37BCB}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37695.000347222223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>7.8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37641.000347222223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37751.000347222223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37827.000347222223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\tra-cuu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5593656-C3F9-43CC-A703-62B11BBAC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1ADBA-0F19-48CD-B41E-4BF333D9FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>[Ghi chú] 3</t>
+  </si>
+  <si>
+    <t>SV0011</t>
+  </si>
+  <si>
+    <t>SV0021</t>
+  </si>
+  <si>
+    <t>SV0031</t>
+  </si>
+  <si>
+    <t>SV0041</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1073,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1138,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1203,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\tra-cuu\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\tra-cuu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D1ADBA-0F19-48CD-B41E-4BF333D9FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F76B260-B093-4B79-B5FF-B1445B9DA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21705" yWindow="465" windowWidth="16950" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kỳ thi số 1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã sinh viên</t>
-  </si>
-  <si>
     <t>Họ và tên</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>SV0041</t>
+  </si>
+  <si>
+    <t>[ID]Mã sinh viên</t>
+  </si>
+  <si>
+    <t>[ID]CCCD</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,64 +612,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -674,64 +677,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>37695.000347222223</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>8.5</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2">
         <v>7.8</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -739,64 +742,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>37641.000347222223</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>6.2</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
       <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>23</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>24</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -804,64 +807,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>37751.000347222223</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="H4">
         <v>9.1999999999999993</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
       </c>
       <c r="K4">
         <v>8.8000000000000007</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -869,70 +872,70 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>37827.000347222223</v>
       </c>
       <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>7.5</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
       <c r="K5">
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>45</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>46</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:U5 A1:G1 R1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:U5 A1 R1 C1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -942,7 +945,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,64 +958,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1020,64 +1023,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>37695.000347222223</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>8.5</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2">
         <v>7.8</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1085,64 +1088,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>37641.000347222223</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>6.2</v>
       </c>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
       <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>23</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>24</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1150,64 +1153,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>37751.000347222223</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="H4">
         <v>9.1999999999999993</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
       </c>
       <c r="K4">
         <v>8.8000000000000007</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1215,64 +1218,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>37827.000347222223</v>
       </c>
       <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>7.5</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
       <c r="K5">
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>45</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>46</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
